--- a/Lab10Parent/Lab10Gaming.xlsx
+++ b/Lab10Parent/Lab10Gaming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mechatronics\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyrum/Documents/Arduino/mechatronics-goats/Lab10Parent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E575EF-98B9-4ACC-A306-DE936FDEFC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC5EC5A-7DC9-FE4A-BC2A-DB00611A5017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C2E33AD0-54CC-410B-984A-EA26CA6569E1}"/>
+    <workbookView xWindow="42140" yWindow="940" windowWidth="34460" windowHeight="26840" xr2:uid="{C2E33AD0-54CC-410B-984A-EA26CA6569E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Force</t>
   </si>
@@ -98,13 +109,69 @@
   <si>
     <t>Mass (kg)</t>
   </si>
+  <si>
+    <t>Pololu Gear ratios</t>
+  </si>
+  <si>
+    <t>T_stall (kg-cm) @ 12V</t>
+  </si>
+  <si>
+    <t>Ω_nl (RPM) @ 12V</t>
+  </si>
+  <si>
+    <t>T_stall (kg-cm) @ 10V</t>
+  </si>
+  <si>
+    <t>Ω_nl (RPM) @ 10V</t>
+  </si>
+  <si>
+    <t>Max robot acceleration (cm/s²) @ 10V</t>
+  </si>
+  <si>
+    <t>Max robot speed (cm/s) @ 10V</t>
+  </si>
+  <si>
+    <t>50:1</t>
+  </si>
+  <si>
+    <t>70:1</t>
+  </si>
+  <si>
+    <t>100:1</t>
+  </si>
+  <si>
+    <t>131:1</t>
+  </si>
+  <si>
+    <t>Rogot Weight</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Wheel Radius</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,12 +195,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,7 +1040,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Force</a:t>
+                  <a:t>Force (N)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1090,6 +1175,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Torque vs Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1163,47 +1273,97 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4221654882857669E-2"/>
+                  <c:y val="1.2030770273397371E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$38:$H$49</c:f>
+              <c:f>Sheet1!$G$38:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>35.814156250923638</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.185837720205683</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.300882128051811</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.044245066615893</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.415926535897931</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.761059759436304</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.964600329384883</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.309733552923255</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5398223686155035</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7699111843077517</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2566370614359172</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62831853071795862</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,6 +1452,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Motor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Speed (RPM)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1354,6 +1574,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque (Nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1455,6 +1730,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Motor Efficiency vs Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1530,45 +1830,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$38:$H$49</c:f>
+              <c:f>Sheet1!$G$38:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>35.814156250923638</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.185837720205683</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.300882128051811</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.044245066615893</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.415926535897931</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.761059759436304</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.964600329384883</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.309733552923255</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5398223686155035</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7699111843077517</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2566370614359172</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62831853071795862</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,6 +1957,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Motor Speed (RPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1719,6 +2074,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Motor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Efficiency</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3478,15 +3893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>1011236</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>465665</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3514,15 +3929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>432858</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3883,23 +4298,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3473FB6-218E-46FE-99E2-D14D5A190009}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3910,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3927,7 +4344,7 @@
         <v>2.8256999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3945,7 +4362,7 @@
         <v>0.34444000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3957,7 +4374,7 @@
         <v>-5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3969,7 +4386,7 @@
         <v>-1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -3981,7 +4398,7 @@
         <v>1.9349999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -3993,7 +4410,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -4005,7 +4422,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>200</v>
       </c>
@@ -4017,7 +4434,7 @@
         <v>0.56666000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>300</v>
       </c>
@@ -4029,7 +4446,7 @@
         <v>0.9143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>400</v>
       </c>
@@ -4041,7 +4458,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>500</v>
       </c>
@@ -4053,7 +4470,7 @@
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>750</v>
       </c>
@@ -4065,7 +4482,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -4077,7 +4494,7 @@
         <v>3.3490000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -4092,7 +4509,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4106,12 +4523,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -4143,7 +4560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -4181,7 +4598,7 @@
         <v>0.44884025672564493</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20</v>
       </c>
@@ -4219,7 +4636,7 @@
         <v>0.48131690535838834</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>30</v>
       </c>
@@ -4257,7 +4674,7 @@
         <v>0.47590345590195193</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4295,7 +4712,7 @@
         <v>0.49441787560120365</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50</v>
       </c>
@@ -4333,7 +4750,7 @@
         <v>0.49168643832775855</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>100</v>
       </c>
@@ -4371,7 +4788,7 @@
         <v>0.42856997478294567</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>200</v>
       </c>
@@ -4409,7 +4826,7 @@
         <v>0.29437952445034488</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>300</v>
       </c>
@@ -4447,7 +4864,7 @@
         <v>0.19539212547625881</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>400</v>
       </c>
@@ -4485,7 +4902,7 @@
         <v>0.12783807371817446</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>500</v>
       </c>
@@ -4523,7 +4940,7 @@
         <v>6.3753331109274752E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>750</v>
       </c>
@@ -4561,7 +4978,7 @@
         <v>2.1235433974318024E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1000</v>
       </c>
@@ -4597,6 +5014,169 @@
       <c r="J49">
         <f t="shared" si="6"/>
         <v>1.0350976733988536E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>200</v>
+      </c>
+      <c r="D76">
+        <f>10/12*(B76)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E76">
+        <f>10/12*(C76)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="F76">
+        <f>D76 / ($C$84*$C$85)</f>
+        <v>1.5563856278904304</v>
+      </c>
+      <c r="G76">
+        <f>(2*PI()*E76 / 60)*$C$85</f>
+        <v>52.35987755982989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>150</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77:D79" si="7">10/12*(B77)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E79" si="8">10/12*(C77)</f>
+        <v>125</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:F79" si="9">D77 / ($C$84*$C$85)</f>
+        <v>2.001067235859125</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G79" si="10">(2*PI()*E77 / 60)*$C$85</f>
+        <v>39.269908169872409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <v>34</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>28.333333333333336</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>2.5198624451559355</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="10"/>
+        <v>26.179938779914945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79">
+        <v>45</v>
+      </c>
+      <c r="C79">
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>3.335112059765208</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="10"/>
+        <v>19.896753472735359</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>8.2639999999999993</v>
+      </c>
+      <c r="C84">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
